--- a/results/mp/deberta/corona/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
@@ -97,12 +97,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -115,13 +115,13 @@
     <t>relief</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>share</t>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6869565217391305</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L18">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="M18">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1180,13 +1180,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.676056338028169</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L19">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="M19">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1310,25 +1310,25 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5565749235474006</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L24">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>145</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1336,25 +1336,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5517241379310345</v>
+        <v>0.5511811023622047</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1362,25 +1362,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5511811023622047</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L26">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="M26">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="10:17">
